--- a/nGram2.xlsx
+++ b/nGram2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B216"/>
+  <dimension ref="A1:B215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,73 +452,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19300</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>tarazzo</t>
+          <t>waterproof</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8100</v>
+        <v>7480</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>waterproof</t>
+          <t>waterproofing</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7430</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>waterproofing</t>
+          <t>terrace</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6890</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>terrace</t>
+          <t>bathroom</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3900</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bathroom</t>
+          <t>tile</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3340</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>tile</t>
+          <t>tiler</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2020</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>tiler</t>
+          <t>waterproofer</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,127 +528,127 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>waterproofer</t>
+          <t>water</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1900</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>proof</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1420</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>proof</t>
+          <t>roof</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1370</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>roof</t>
+          <t>floor</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1360</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>floor</t>
+          <t>ceiling</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1260</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ceiling</t>
+          <t>shower</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1050</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>shower</t>
+          <t>wall</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1020</v>
+        <v>970</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>wall</t>
+          <t>tiling</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>970</v>
+        <v>950</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>tiling</t>
+          <t>tiled</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>950</v>
+        <v>880</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>tiled</t>
+          <t>stick</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>880</v>
+        <v>690</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>stick</t>
+          <t>panels</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>690</v>
+        <v>660</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>panels</t>
+          <t>fixit</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>660</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>fixit</t>
+          <t>dr</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,31 +658,31 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>dr</t>
+          <t>gap</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>gap</t>
+          <t>peel</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>peel</t>
+          <t>vinyl</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>520</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26">
@@ -698,27 +698,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>vinyl</t>
+          <t>on</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>440</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>aquadefense</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>aquadefense</t>
+          <t>price</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,37 +728,37 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>price</t>
+          <t>resistant</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>390</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>resistant</t>
+          <t>without</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>without</t>
+          <t>laticrete</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>laticrete</t>
+          <t>sheets</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,41 +768,41 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>sheets</t>
+          <t>removing</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>removing</t>
+          <t>myk</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>myk</t>
+          <t>over</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>over</t>
+          <t>flooring</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38">
@@ -848,27 +848,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>flooring</t>
+          <t>best</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>roff</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>roff</t>
+          <t>carpet</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -878,27 +878,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>carpet</t>
+          <t>proofing</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>proofing</t>
+          <t>pvc</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>pvc</t>
+          <t>basement</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,17 +908,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>basement</t>
+          <t>bath</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>bath</t>
+          <t>fill</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,27 +928,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>fill</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>fevimate</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>fevimate</t>
+          <t>backsplash</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,17 +958,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>backsplash</t>
+          <t>kag</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>kag</t>
+          <t>suspended</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,17 +978,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>suspended</t>
+          <t>false</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>under</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>under</t>
+          <t>existing</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>existing</t>
+          <t>interlocking</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>interlocking</t>
+          <t>palisade</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1028,17 +1028,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>palisade</t>
+          <t>repellent</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>repellent</t>
+          <t>ceramic</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ceramic</t>
+          <t>of</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>balcony</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,17 +1068,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>balcony</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>tilesafe</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>tilesafe</t>
+          <t>pidilite</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>pidilite</t>
+          <t>black</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>ezee</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ezee</t>
+          <t>n</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>kwik</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>kwik</t>
+          <t>in</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>top</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>showers</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>outdoor</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>outdoor</t>
+          <t>moisture</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,17 +1188,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>moisture</t>
+          <t>reform</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>reform</t>
+          <t>joint</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>joint</t>
+          <t>wood</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>wood</t>
+          <t>deck</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,17 +1228,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>deck</t>
+          <t>chemicals</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>chemicals</t>
+          <t>kerakoll</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>kerakoll</t>
+          <t>cement</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>cement</t>
+          <t>rubber</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>rubber</t>
+          <t>sticky</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>sticky</t>
+          <t>look</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>look</t>
+          <t>foam</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>foam</t>
+          <t>smartcore</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>smartcore</t>
+          <t>duma</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>duma</t>
+          <t>like</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1328,17 +1328,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>transparent</t>
+          <t>that</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>transparent</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>dunlop</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>densshield</t>
+          <t>dunlop</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>pool</t>
+          <t>densshield</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>swimming</t>
+          <t>pool</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>diy</t>
+          <t>swimming</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>thermaldry</t>
+          <t>diy</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>curb</t>
+          <t>thermaldry</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>acoustic</t>
+          <t>curb</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>mildewproof</t>
+          <t>acoustic</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>stone</t>
+          <t>mildewproof</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>garage</t>
+          <t>stone</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>bathtub</t>
+          <t>garage</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2x2</t>
+          <t>bathtub</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>like</t>
+          <t>2x2</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>that</t>
+          <t>looks</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2x4</t>
+          <t>12x24</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>looks</t>
+          <t>2x4</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>home</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>near</t>
+          <t>tarazzo</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>home</t>
+          <t>wipeable</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>wipeable</t>
+          <t>slate</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>slate</t>
+          <t>bed</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>mud</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>mud</t>
+          <t>together</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>together</t>
+          <t>snap</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>snap</t>
+          <t>self</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>self</t>
+          <t>linoleum</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>linoleum</t>
+          <t>groutless</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>groutless</t>
+          <t>cork</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>cork</t>
+          <t>dry</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>dry</t>
+          <t>thermal</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>thermal</t>
+          <t>technokolla</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>technokolla</t>
+          <t>hydraflex</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>hydraflex</t>
+          <t>tec</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>tec</t>
+          <t>sumter</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>sumter</t>
+          <t>redifix</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>redifix</t>
+          <t>no</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>gray</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>gray</t>
+          <t>whitfield</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>whitfield</t>
+          <t>msi</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>msi</t>
+          <t>jackoboard</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>jackoboard</t>
+          <t>impervious</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>impervious</t>
+          <t>hydrathane</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>hydrathane</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>hanwood</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>hanwood</t>
+          <t>white</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>pro</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>pro</t>
+          <t>smooth</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>smooth</t>
+          <t>menards</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>menards</t>
+          <t>dukkaboard</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>dukkaboard</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>dampfix</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>dampfix</t>
+          <t>ampera</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ampera</t>
+          <t>bondera</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>bondera</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>a108</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>a108</t>
+          <t>ansi</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ansi</t>
+          <t>absolute</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>absolute</t>
+          <t>patio</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>patio</t>
+          <t>vv032</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>vv032</t>
+          <t>coffer</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>coretec</t>
+          <t>icon</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>coffer</t>
+          <t>genesis</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>icon</t>
+          <t>concrete</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>genesis</t>
+          <t>sedona</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>concrete</t>
+          <t>coretec</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>sedona</t>
+          <t>blonde</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>blonde</t>
+          <t>bayhill</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>bayhill</t>
+          <t>everlife</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>everlife</t>
+          <t>retile</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -2578,20 +2578,10 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>retile</t>
+          <t>cost</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>cost</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
         <v>0</v>
       </c>
     </row>
